--- a/biology/Zoologie/Conus_lariniorum/Conus_lariniorum.xlsx
+++ b/biology/Zoologie/Conus_lariniorum/Conus_lariniorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus lariniorum est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus lariniorum a été décrite pour la première fois en 2020 par le malacologiste allemand Felix Lorenz (d)[1]Georges Richard dans « Conchylia »[2],[3].
-Synonymes
-Darioconus lariniorum Lorenz, 2020 · non accepté</t>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus lariniorum a été décrite pour la première fois en 2020 par le malacologiste allemand Felix Lorenz (d)Georges Richard dans « Conchylia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_lariniorum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_lariniorum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Darioconus lariniorum Lorenz, 2020 · non accepté</t>
         </is>
       </c>
     </row>
